--- a/medicine/Premiers secours et secourisme/Caserne_Masséna/Caserne_Masséna.xlsx
+++ b/medicine/Premiers secours et secourisme/Caserne_Masséna/Caserne_Masséna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caserne_Mass%C3%A9na</t>
+          <t>Caserne_Masséna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La caserne Masséna est une caserne de la Brigade de sapeurs-pompiers de Paris située au no 37 du boulevard Masséna dans le 13e arrondissement de Paris. Les remises se trouvent sur le côté rue Darmesteter. Il s'agit de l'une des plus grandes casernes de pompiers en Europe[1].
+La caserne Masséna est une caserne de la Brigade de sapeurs-pompiers de Paris située au no 37 du boulevard Masséna dans le 13e arrondissement de Paris. Les remises se trouvent sur le côté rue Darmesteter. Il s'agit de l'une des plus grandes casernes de pompiers en Europe.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caserne_Mass%C3%A9na</t>
+          <t>Caserne_Masséna</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'état-major du 2e groupement d'incendie et de secours (Sud-Est de Paris et le Val-de-Marne) y est basé. Ce groupement comptait 1 807 sapeurs-pompiers en 2005. 
-Construite en 1971 sur les plans des architectes Jean Willerval[2] et Prvoslav Popovic[3], ce bâtiment de 18 étages dont la structure est en béton précontraint[3] se veut « une cité radieuse la poésie en plus, par l'arrondi général de la structure »[1]. À cet égard, on peut voir cette caserne comme un écho de la maison Planeix de Le Corbusier, qui se trouve à proximité[4].
+Construite en 1971 sur les plans des architectes Jean Willerval et Prvoslav Popovic, ce bâtiment de 18 étages dont la structure est en béton précontraint se veut « une cité radieuse la poésie en plus, par l'arrondi général de la structure ». À cet égard, on peut voir cette caserne comme un écho de la maison Planeix de Le Corbusier, qui se trouve à proximité.
 </t>
         </is>
       </c>
